--- a/biology/Botanique/Richard-Auguste_Hennessy/Richard-Auguste_Hennessy.xlsx
+++ b/biology/Botanique/Richard-Auguste_Hennessy/Richard-Auguste_Hennessy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard-Auguste Hennessy (24 décembre 1800, Cognac - 2 septembre 1879, château de Bagnolet), est un homme politique français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de Jacques Hennessy, il succéda à son père dans sa maison de commerce (Hennessy), s'occupa de sport et de chasse, devint président du tribunal de commerce de Cognac, commandant de la garde nationale de cette ville, conseiller général de la Charente, et se fit élire, après la Révolution française de 1848, le 23 avril de la même année, représentant de la Charente à l'Assemblée constituante, le 3e sur 9. 
 Il vota pour le bannissement de la famille d'Orléans, pour les poursuites contre Louis Blanc et Caussidière, pour le rétablissement de la contrainte par corps, contre l'amendement Grévy, contre le droit au travail, pour l'ordre du jour en l'honneur de Cavaignac, et, pleinement rallié à la politique du président Louis-Napoléon Bonaparte, se prononça : pour la proposition Râteau, pour l'interdiction des clubs, pour les crédits de l'expédition de Rome, contre l'amnistie, etc. 
@@ -546,7 +560,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Richard-Auguste Hennessy », dans Adolphe Robert et Gaston Cougny, Dictionnaire des parlementaires français, Edgar Bourloton, 1889-1891 [détail de l’édition]</t>
         </is>
